--- a/hw2fintools/xlsx/stock_watch_list.xlsx
+++ b/hw2fintools/xlsx/stock_watch_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/hw2fintools/hw2fintools/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED101246-D4DB-3441-B676-A4827B2E39C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772C6CEE-0022-9A41-8E00-C6BD81B61F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="34440" windowHeight="21100" xr2:uid="{A7A7A1CB-6173-5346-A4FE-B7F4B1126E78}"/>
+    <workbookView xWindow="1240" yWindow="1040" windowWidth="34440" windowHeight="21100" xr2:uid="{A7A7A1CB-6173-5346-A4FE-B7F4B1126E78}"/>
   </bookViews>
   <sheets>
     <sheet name="tab1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Ticker</t>
   </si>
@@ -519,9 +519,6 @@
     <t>52Low</t>
   </si>
   <si>
-    <t>LastDump</t>
-  </si>
-  <si>
     <t>Watch</t>
   </si>
   <si>
@@ -536,6 +533,18 @@
   <si>
     <t>MarketCap</t>
   </si>
+  <si>
+    <t>tech_kong</t>
+  </si>
+  <si>
+    <t>phones, computers, tech_services,  tablets, media_content, enterprise_computers, wearable_tech</t>
+  </si>
+  <si>
+    <t>EconomicMoat</t>
+  </si>
+  <si>
+    <t>consumer_brand, ecosystem, intangible, patents</t>
+  </si>
 </sst>
 </file>
 
@@ -544,8 +553,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -607,54 +616,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -670,10 +643,16 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -701,16 +680,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -857,8 +826,8 @@
     <v>277.32</v>
     <v>169.21010000000001</v>
     <v>1.1049</v>
-    <v>2.0649999999999999</v>
-    <v>7.7210000000000004E-3</v>
+    <v>3.5550000000000002</v>
+    <v>1.3292999999999999E-2</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, visionOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. The Company operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+, and Apple TV+. Its products include iPhone 16 Pro, iPhone 16, iPhone 15, iPhone 14, iPhone SE, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, AirPods, AirPods Pro, AirPods Max, Apple TV and Apple Vision Pro.</v>
     <v>166000</v>
@@ -866,23 +835,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>269.77999999999997</v>
+    <v>272.20999999999998</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45980.620689374999</v>
+    <v>45980.656527719533</v>
     <v>0</v>
     <v>265.5</v>
-    <v>3982300206750</v>
+    <v>4004316968250</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
     <v>265.5</v>
-    <v>36.289099999999998</v>
+    <v>36.489800000000002</v>
     <v>267.44</v>
-    <v>269.505</v>
+    <v>270.995</v>
     <v>14776350000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>4752742</v>
+    <v>9957035</v>
     <v>49432641</v>
     <v>1977</v>
   </rv>
@@ -908,8 +877,8 @@
     <v>65</v>
     <v>40.98</v>
     <v>0.67800000000000005</v>
-    <v>-0.97499999999999998</v>
-    <v>-1.6109999999999999E-2</v>
+    <v>-0.87</v>
+    <v>-1.4375000000000001E-2</v>
     <v>USD</v>
     <v>Archer-Daniels-Midland Company is a global agricultural supply chain manager and processor, providing food security by connecting local needs with global capabilities. It is a human and animal nutrition provider. Its Ag Services and Oilseeds segment includes global activities related to the origination, merchandising, transportation, and storage of agricultural raw materials, and the crushing and further processing of oilseeds, such as soybeans and soft seeds into vegetable oils and protein meals. Carbohydrate Solutions segment is engaged in corn and wheat wet and dry milling and other activities. Nutrition segment is engaged in the creation, manufacturing, sale, and distribution of a wide array of ingredients and solutions, including plant-based proteins, flavors and colors derived from nature, flavor systems, emulsifiers, soluble fiber, polyols, hydrocolloids, probiotics, prebiotics, postbiotics, enzymes, botanical extracts, and other specialty food and feed ingredients and systems.</v>
     <v>42383</v>
@@ -920,20 +889,20 @@
     <v>60.564999999999998</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45980.62061232578</v>
+    <v>45980.656394907033</v>
     <v>3</v>
-    <v>59.475000000000001</v>
+    <v>59.42</v>
     <v>29329170000</v>
     <v>ARCHER-DANIELS-MIDLAND COMPANY.</v>
     <v>ARCHER-DANIELS-MIDLAND COMPANY.</v>
     <v>60.36</v>
-    <v>24.154199999999999</v>
+    <v>24.1968</v>
     <v>60.52</v>
-    <v>59.545000000000002</v>
+    <v>59.65</v>
     <v>480569700</v>
     <v>ADM</v>
     <v>ARCHER-DANIELS-MIDLAND COMPANY. (XNYS:ADM)</v>
-    <v>219645</v>
+    <v>477907</v>
     <v>3485515</v>
     <v>1923</v>
   </rv>
@@ -959,25 +928,25 @@
     <v>53.24</v>
     <v>43.75</v>
     <v>0.52990000000000004</v>
-    <v>-0.42</v>
-    <v>-8.9759999999999996E-3</v>
+    <v>-0.1701</v>
+    <v>-3.6349999999999998E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.5000000000000006E-3</v>
     <v>46.68</v>
     <v>ETF</v>
-    <v>45980.620594675784</v>
+    <v>45980.656461133593</v>
     <v>6</v>
     <v>46.34</v>
     <v>10304279272.74</v>
     <v>Alerian MLP</v>
     <v>46.555</v>
     <v>46.79</v>
-    <v>46.37</v>
+    <v>46.619900000000001</v>
     <v>AMLP</v>
     <v>Alerian MLP (ARCX:AMLP)</v>
-    <v>104773</v>
+    <v>215656</v>
     <v>1716134</v>
   </rv>
   <rv s="2">
@@ -1007,8 +976,8 @@
     <v>258.60000000000002</v>
     <v>161.38</v>
     <v>1.3831</v>
-    <v>-3.11</v>
-    <v>-1.3974E-2</v>
+    <v>-2.1349999999999998</v>
+    <v>-9.5930000000000008E-3</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It also manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
     <v>1578000</v>
@@ -1019,20 +988,20 @@
     <v>223.73500000000001</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45980.620712510936</v>
+    <v>45980.656513738279</v>
     <v>10</v>
-    <v>219.02</v>
-    <v>2345861876800</v>
+    <v>218.53</v>
+    <v>2356284841300</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
     <v>223.59</v>
-    <v>30.998699999999999</v>
+    <v>31.136500000000002</v>
     <v>222.55</v>
-    <v>219.44</v>
+    <v>220.41499999999999</v>
     <v>10690220000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>9211063</v>
+    <v>19379739</v>
     <v>52674749</v>
     <v>1996</v>
   </rv>
@@ -1058,8 +1027,8 @@
     <v>1219.9399000000001</v>
     <v>773.74009999999998</v>
     <v>1.4857</v>
-    <v>4.05</v>
-    <v>3.9740000000000001E-3</v>
+    <v>-1.895</v>
+    <v>-1.8590000000000002E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, private markets, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. Its product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives, and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds, separate accounts, collective investment funds and other pooled investment vehicles. It also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>24600</v>
@@ -1067,23 +1036,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>1023.75</v>
+    <v>1025.4384</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45980.620694571095</v>
+    <v>45980.656470150003</v>
     <v>13</v>
-    <v>1016.87</v>
-    <v>158748849371</v>
+    <v>1016.1201</v>
+    <v>157826477270</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
     <v>1019.51</v>
-    <v>26.590299999999999</v>
+    <v>26.4358</v>
     <v>1019.14</v>
-    <v>1023.19</v>
+    <v>1017.245</v>
     <v>155150900</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>31677</v>
+    <v>71686</v>
     <v>673010</v>
     <v>2024</v>
   </rv>
@@ -1109,8 +1078,8 @@
     <v>63.33</v>
     <v>42.52</v>
     <v>0.29780000000000001</v>
-    <v>-0.79500000000000004</v>
-    <v>-1.6893000000000002E-2</v>
+    <v>-0.92989999999999995</v>
+    <v>-1.976E-2</v>
     <v>USD</v>
     <v>Bristol-Myers Squibb Company is a global biopharmaceutical company. It is engaged in the discovery, development and delivery of transformational medicines for patients facing serious diseases in areas: oncology, hematology, immunology, cardiovascular, neuroscience and other areas. Its growth portfolio includes Opdivo (nivolumab), Opdivo Qvantig (nivolumab and hyaluronidase-nvhy), Yervoy (ipilimumab), Reblozyl (luspatercept-aamt), Opdualag (nivolumab and relatlimab-rmbw), Breyanzi (lisocabtagene maraleucel), Camzyos (mavacamten), Zeposia (ozanimod), Abecma (idecabtagene vicleucel), and Sotyktu (deucravacitinib). Its other growth products include Onureg, Inrebic, and Empliciti. Its legacy portfolio includes Eliquis (apixaban), Revlimid (lenalidomide), Pomalyst/Imnovid (pomalidomide), Sprycel (dasatinib), and Abraxane (paclitaxel albumin-bound particles for injectable suspension). Opdivo (nivolumab) is a fully human monoclonal antibody that binds to the PD-1 on T and NKT cells.</v>
     <v>34100</v>
@@ -1121,20 +1090,20 @@
     <v>47</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45980.620702522654</v>
+    <v>45980.656497962504</v>
     <v>16</v>
     <v>46.09</v>
-    <v>94184112545</v>
+    <v>93909489465</v>
     <v>BRISTOL-MYERS SQUIBB COMPANY</v>
     <v>BRISTOL-MYERS SQUIBB COMPANY</v>
     <v>47</v>
-    <v>15.6539</v>
+    <v>15.6082</v>
     <v>47.06</v>
-    <v>46.265000000000001</v>
+    <v>46.130099999999999</v>
     <v>2035753000</v>
     <v>BMY</v>
     <v>BRISTOL-MYERS SQUIBB COMPANY (XNYS:BMY)</v>
-    <v>842901</v>
+    <v>2474438</v>
     <v>15766394</v>
     <v>1933</v>
   </rv>
@@ -1160,8 +1129,8 @@
     <v>171.37</v>
     <v>99.55</v>
     <v>0.59050000000000002</v>
-    <v>-0.16</v>
-    <v>-1.598E-3</v>
+    <v>-0.14499999999999999</v>
+    <v>-1.4480000000000001E-3</v>
     <v>USD</v>
     <v>The Clorox Company is a multinational manufacturer and marketer of consumer and professional products. The Company operates through four segments: Health and Wellness, Household, Lifestyle, and International. Its Health and Wellness segment consists of cleaning, disinfecting and professional products marketed and sold under the Clorox, Clorox2, Pine-Sol, Scentiva, Tilex, Liquid-Plumr and Formula 409 brands in the United States. Its Household segment consists of bags and wraps, cat litter and grilling products marketed and sold under the Glad, Fresh Step and Scoop Away, and Kingsford brands in the United States. The lifestyle segment consists of food, water-filtration and natural personal care products marketed and sold under the Hidden Valley, Brita and Burt’s Bees brands. International consists of products sold outside the United States. Its products within this segment include laundry additives, home care products, bags and wraps, cat litter, water-filtration products and others.</v>
     <v>7600</v>
@@ -1172,20 +1141,20 @@
     <v>101.19</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45980.620670856253</v>
+    <v>45980.656416793747</v>
     <v>19</v>
     <v>99.55</v>
-    <v>12195600392</v>
+    <v>12197430098</v>
     <v>THE CLOROX COMPANY</v>
     <v>THE CLOROX COMPANY</v>
     <v>100.9</v>
-    <v>15.6691</v>
+    <v>15.6715</v>
     <v>100.14</v>
-    <v>99.98</v>
+    <v>99.995000000000005</v>
     <v>121980400</v>
     <v>CLX</v>
     <v>THE CLOROX COMPANY (XNYS:CLX)</v>
-    <v>232806</v>
+    <v>589264</v>
     <v>1999304</v>
     <v>1986</v>
   </rv>
@@ -1211,8 +1180,8 @@
     <v>44.03</v>
     <v>25.75</v>
     <v>0.81969999999999998</v>
-    <v>-0.26500000000000001</v>
-    <v>-9.6860000000000002E-3</v>
+    <v>-0.32</v>
+    <v>-1.1696E-2</v>
     <v>USD</v>
     <v>Comcast Corporation is a global media and technology company. The Company delivers broadband, wireless, and video through Xfinity, Comcast Business, and Sky; produces, distributes, and streams entertainment, sports, and news through brands, including NBC, Telemundo, Universal, Peacock, and Sky; and brings theme parks and attractions to life through Universal Destinations &amp; Experiences. It operates through two primary businesses: Connectivity &amp; Platforms and Content &amp; Experiences. Connectivity &amp; Platforms includes its broadband, wireless, video and wireline voice businesses in the United States, United Kingdom and Italy. It also includes the operations of its Sky-branded entertainment television networks in the United Kingdom and Italy. Content &amp; Experiences includes its media and entertainment businesses that produce and distribute entertainment, sports, news and other content for global audiences and that own and operate theme parks and attractions in the United States and Asia.</v>
     <v>182000</v>
@@ -1223,20 +1192,20 @@
     <v>27.35</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45980.620709675779</v>
+    <v>45980.656507314059</v>
     <v>22</v>
-    <v>27</v>
-    <v>98731335025</v>
+    <v>26.975000000000001</v>
+    <v>98530920800</v>
     <v>COMCAST CORPORATION</v>
     <v>COMCAST CORPORATION</v>
     <v>27.35</v>
-    <v>4.4987000000000004</v>
+    <v>4.4894999999999996</v>
     <v>27.36</v>
-    <v>27.094999999999999</v>
+    <v>27.04</v>
     <v>3643895000</v>
     <v>CMCSA</v>
     <v>COMCAST CORPORATION (XNAS:CMCSA)</v>
-    <v>1726252</v>
+    <v>4838886</v>
     <v>33488231</v>
     <v>2001</v>
   </rv>
@@ -1262,8 +1231,8 @@
     <v>85.15</v>
     <v>43.56</v>
     <v>0.47970000000000002</v>
-    <v>-1</v>
-    <v>-1.2829999999999999E-2</v>
+    <v>-0.8125</v>
+    <v>-1.0425E-2</v>
     <v>USD</v>
     <v>CVS Health Corporation is a health solutions company. The Company's segments include Health Care Benefits, Health Services, Pharmacy &amp; Consumer Wellness and Corporate/Other. The Health Care Benefits segment offers a range of traditional, voluntary and consumer-directed health insurance products and related services, including medical, pharmacy, dental and behavioral health plans, medical management capabilities, PDPs and Medicaid health care management services. The Health Services segment provides a full range of PBM solutions, delivers health care services in its medical clinics, virtually, and in the home, and offers provider enablement solutions. The Pharmacy &amp; Consumer Wellness segment dispenses prescriptions in its retail pharmacies and through its infusion operations, provides ancillary pharmacy services including pharmacy patient care programs, diagnostic testing and vaccination administration, and sells an assortment of health and wellness products and general merchandise.</v>
     <v>300000</v>
@@ -1274,20 +1243,20 @@
     <v>78.17</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45980.620702731248</v>
+    <v>45980.656515404684</v>
     <v>25</v>
-    <v>76.91</v>
+    <v>76.849999999999994</v>
     <v>98939570000</v>
     <v>CVS HEALTH CORPORATION</v>
     <v>CVS HEALTH CORPORATION</v>
     <v>77.905000000000001</v>
-    <v>201.5719</v>
+    <v>202.06309999999999</v>
     <v>77.94</v>
-    <v>76.94</v>
+    <v>77.127499999999998</v>
     <v>1269432000</v>
     <v>CVS</v>
     <v>CVS HEALTH CORPORATION (XNYS:CVS)</v>
-    <v>407041</v>
+    <v>1183281</v>
     <v>7675262</v>
     <v>1996</v>
   </rv>
@@ -1313,8 +1282,8 @@
     <v>168.96</v>
     <v>132.04</v>
     <v>0.67349999999999999</v>
-    <v>-3.25</v>
-    <v>-2.1156000000000001E-2</v>
+    <v>-2.85</v>
+    <v>-1.8551999999999999E-2</v>
     <v>USD</v>
     <v>Chevron Corporation is an integrated energy company. The Company produces crude oil and natural gas; manufactures transportation fuels, lubricants, petrochemicals and additives; and develops technologies that enhance its business and industry. The Company’s segments include Upstream and Downstream. Upstream operations consist primarily of exploring for, developing, producing and transporting crude oil and natural gas; liquefaction, transportation and regasification associated with LNG; transporting crude oil by major international oil export pipelines; processing, transporting, storage and marketing of natural gas; carbon capture and storage; and a gas-to-liquids plant. Downstream operations consist primarily of the refining of crude oil into petroleum products; marketing crude oil, refined products, and lubricants; manufacturing and marketing of renewable fuels, and transporting of crude oil and refined products by pipeline, marine vessel, motor equipment and rail car.</v>
     <v>45298</v>
@@ -1325,20 +1294,20 @@
     <v>151.3612</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45980.620690404685</v>
+    <v>45980.656514964845</v>
     <v>28</v>
-    <v>150.29</v>
-    <v>302773303140</v>
+    <v>150.25</v>
+    <v>303578711940</v>
     <v>CHEVRON CORPORATION</v>
     <v>CHEVRON CORPORATION</v>
     <v>151.19999999999999</v>
-    <v>21.233000000000001</v>
+    <v>21.2895</v>
     <v>153.62</v>
-    <v>150.37</v>
+    <v>150.77000000000001</v>
     <v>2013522000</v>
     <v>CVX</v>
     <v>CHEVRON CORPORATION (XNYS:CVX)</v>
-    <v>749500</v>
+    <v>1542813</v>
     <v>7569834</v>
     <v>1926</v>
   </rv>
@@ -1364,8 +1333,8 @@
     <v>107.5</v>
     <v>56.72</v>
     <v>1.2474000000000001</v>
-    <v>-0.20499999999999999</v>
-    <v>-3.565E-3</v>
+    <v>0.06</v>
+    <v>1.0430000000000001E-3</v>
     <v>USD</v>
     <v>Eastman Chemical Company is a global specialty materials company that produces a range of products found in items people use every day. Its segments include Advanced Materials (AM), Additives &amp; Functional Products (AFP), Chemical Intermediates (CI), and Fibers. The AM segment produces and markets polymers, films, and plastics with differentiated performance properties for value-added end-uses in transportation; durables and electronics; building and construction; medical and pharma, and consumables end-markets. AFP segment manufactures materials for products in food, feed, and agriculture; transportation; water treatment and energy; personal care and wellness; building and construction; consumables, and durables and electronics end-markets. The CI segment sells intermediates for end-markets, such as industrial chemicals and processing, building and construction, health and wellness, and food and feed. Its Fibers segment manufactures and sells acetate tow and triacetin plasticizers.</v>
     <v>14000</v>
@@ -1373,23 +1342,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Po Box 511, 200 South Wilcox Drive, KINGSPORT, TN, 37660 US</v>
-    <v>57.734999999999999</v>
+    <v>58.002400000000002</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45980.620676099221</v>
+    <v>45980.656469767971</v>
     <v>31</v>
     <v>56.97</v>
-    <v>6536769889</v>
+    <v>6566998386</v>
     <v>EASTMAN CHEMICAL COMPANY</v>
     <v>EASTMAN CHEMICAL COMPANY</v>
     <v>57.66</v>
-    <v>9.5474999999999994</v>
+    <v>9.5915999999999997</v>
     <v>57.51</v>
-    <v>57.305</v>
+    <v>57.57</v>
     <v>114069800</v>
     <v>EMN</v>
     <v>EASTMAN CHEMICAL COMPANY (XNYS:EMN)</v>
-    <v>49782</v>
+    <v>146160</v>
     <v>3086024</v>
     <v>1993</v>
   </rv>
@@ -1415,25 +1384,25 @@
     <v>34.28</v>
     <v>27.382999999999999</v>
     <v>0.76800000000000002</v>
-    <v>-0.27</v>
-    <v>-8.7150000000000005E-3</v>
+    <v>-0.2</v>
+    <v>-6.4559999999999999E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>3.4999999999999996E-3</v>
-    <v>30.75</v>
+    <v>30.78</v>
     <v>ETF</v>
-    <v>45980.619201608592</v>
+    <v>45980.653785786715</v>
     <v>34</v>
-    <v>30.71</v>
+    <v>30.7</v>
     <v>307474141.51999998</v>
     <v>ALPS Alerian Energy Infr</v>
-    <v>30.718599999999999</v>
+    <v>30.72</v>
     <v>30.98</v>
-    <v>30.71</v>
+    <v>30.78</v>
     <v>ENFR</v>
     <v>ALPS Alerian Energy Infr (ARCX:ENFR)</v>
-    <v>5294</v>
+    <v>17159</v>
     <v>63935</v>
   </rv>
   <rv s="2">
@@ -1458,8 +1427,8 @@
     <v>360.5</v>
     <v>239.2</v>
     <v>0.40679999999999999</v>
-    <v>-1.41</v>
-    <v>-4.1310000000000001E-3</v>
+    <v>-0.66</v>
+    <v>-1.934E-3</v>
     <v>USD</v>
     <v>General Dynamics Corporation is a global aerospace and defense company. It offers a portfolio of products and services in business aviation; ship construction and repair; land combat vehicles, weapons systems and munitions, and technology products and services. Its segments include Aerospace, Marine Systems, Combat Systems and Technologies. The Aerospace segment produces business jets and is the standard bearer in new technology aircraft, aircraft repair, customer support and custom completion services. The Marine Systems segment designs and builds nuclear-powered submarines and is engaged in surface combatant and auxiliary ship design and construction for the U.S. Navy. The Combat Systems segment manufactures land combat solutions worldwide, including wheeled and tracked combat vehicles, weapons systems and munitions. The Technologies segment provides a full spectrum of services, technologies and products to a range of military, intelligence, federal civilian and state customers.</v>
     <v>117000</v>
@@ -1467,23 +1436,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>11011 Sunset Hills Rd, RESTON, VA, 20190 US</v>
-    <v>340.88209999999998</v>
+    <v>341.26159999999999</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45980.620702221873</v>
+    <v>45980.656482742968</v>
     <v>37</v>
     <v>336.29</v>
-    <v>91808555540</v>
+    <v>92011145915</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>339.13</v>
-    <v>22.035399999999999</v>
+    <v>22.084</v>
     <v>341.29</v>
-    <v>339.88</v>
+    <v>340.63</v>
     <v>270120500</v>
     <v>GD</v>
     <v>GENERAL DYNAMICS CORPORATION (XNYS:GD)</v>
-    <v>96212</v>
+    <v>211246</v>
     <v>1144683</v>
     <v>1952</v>
   </rv>
@@ -1509,8 +1478,8 @@
     <v>439.37</v>
     <v>326.31</v>
     <v>1.0714999999999999</v>
-    <v>-3.4630000000000001</v>
-    <v>-1.0291999999999999E-2</v>
+    <v>-2.41</v>
+    <v>-7.1619999999999991E-3</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement specialty retailer. The Company offers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair, and operations products, in stores and online. It also provides various services, including home improvement installation services, and tool and equipment rental. The Company operates approximately 2,353 retail stores, over 800 branches and more than 325 distribution centers that directly fulfill customer orders across all 50 states, the District of Columbia, Puerto Rico, the U.S. Virgin Islands, Guam, 10 Canadian provinces and Mexico. Its stores average approximately 105,000 square feet of enclosed space, with approximately 24,000 additional square feet of outside garden area. The Company serves two primary customer groups, including both do-it-yourself (DIY) and Do-It-For-Me (DIFM) customers and Professional Customers (Pros).</v>
     <v>470000</v>
@@ -1521,20 +1490,20 @@
     <v>341.75</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45980.620703564062</v>
+    <v>45980.656508402346</v>
     <v>40</v>
-    <v>332.8</v>
-    <v>331480692673</v>
+    <v>332.51</v>
+    <v>332528834869</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>340.87</v>
-    <v>22.714300000000001</v>
+    <v>22.786100000000001</v>
     <v>336.48</v>
-    <v>333.017</v>
+    <v>334.07</v>
     <v>995386700</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>1366752</v>
+    <v>2586422</v>
     <v>3359775</v>
     <v>1978</v>
   </rv>
@@ -1560,8 +1529,8 @@
     <v>208.03</v>
     <v>140.13</v>
     <v>0.16120000000000001</v>
-    <v>-0.56999999999999995</v>
-    <v>-3.1159999999999998E-3</v>
+    <v>-0.77500000000000002</v>
+    <v>-4.2370000000000003E-3</v>
     <v>USD</v>
     <v>The Hershey Company is a snacks company. The Company's segments include North America Confectionery, North America Salty Snacks and International. The North America Confectionery segment is responsible for its traditional chocolate and non-chocolate confectionery market position in the United States and Canada. This includes its business in chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry and food service lines. This segment also includes its retail operations. The North America Salty Snacks segment is responsible for its salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans fat free snacks, pretzels and other snacks. The Company's portfolio includes chocolate and confectionery brands such as Hershey's, Reese's, Kisses, Kit Kat, Jolly Rancher, Ice Breakers, Shaq-a-licious alongside salty snacks including SkinnyPop and Dot's Homestyle Pretzels.</v>
     <v>18540</v>
@@ -1569,23 +1538,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>19 East Chocolate Avenue, External Rptg &amp; Compliance, HERSHEY, PA, 17033 US</v>
-    <v>182.66</v>
+    <v>183.01</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45980.620609443751</v>
+    <v>45980.65647974531</v>
     <v>43</v>
     <v>181.77</v>
-    <v>36979890836</v>
+    <v>36938319890</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
     <v>181.85</v>
-    <v>21.009699999999999</v>
+    <v>20.9861</v>
     <v>182.93</v>
-    <v>182.36</v>
+    <v>182.155</v>
     <v>202785100</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>56554</v>
+    <v>204596</v>
     <v>1990713</v>
     <v>1927</v>
   </rv>
@@ -1608,11 +1577,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>201.2799</v>
+    <v>202.15</v>
     <v>140.68</v>
     <v>0.3372</v>
-    <v>0.59</v>
-    <v>2.9499999999999999E-3</v>
+    <v>1.68</v>
+    <v>8.3999999999999995E-3</v>
     <v>USD</v>
     <v>Johnson &amp; Johnson and its subsidiaries are engaged in the research and development, manufacture, and sale of a range of products in the healthcare field. The Company’s segments include Innovative Medicine and MedTech. The Innovative Medicine segment is focused on various therapeutic areas, including immunology, infectious diseases, neuroscience, oncology, pulmonary hypertension, cardiovascular and metabolism. Its products include REMICADE (infliximab), SIMPONI (golimumab), SIMPONI ARIA (golimumab), STELARA (ustekinumab), TREMFYA (guselkumab), EDURANT (rilpivirine), and INVEGA SUSTENNA/XEPLION (paliperidone palmitate). The MedTech segment includes a portfolio of products used in cardiovascular, orthopedics, surgery, and vision categories. The Cardiovascular portfolio includes electrophysiology products to treat heart rhythm disorders and circulatory restoration products (Shockwave) for the treatment of calcified coronary artery disease (CAD) and peripheral artery disease (PAD).</v>
     <v>138100</v>
@@ -1620,23 +1589,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Johnson &amp; Johnson Plaza, NEW BRUNSWICK, NJ, 08933 US</v>
-    <v>201.2799</v>
+    <v>202.15</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45980.620699432809</v>
+    <v>45980.656503529688</v>
     <v>46</v>
     <v>199.38</v>
-    <v>483280484050</v>
+    <v>485906615600</v>
     <v>JOHNSON &amp; JOHNSON</v>
     <v>JOHNSON &amp; JOHNSON</v>
     <v>200</v>
-    <v>19.360800000000001</v>
+    <v>19.466100000000001</v>
     <v>200</v>
-    <v>200.59</v>
+    <v>201.68</v>
     <v>2409295000</v>
     <v>JNJ</v>
     <v>JOHNSON &amp; JOHNSON (XNYS:JNJ)</v>
-    <v>2014977</v>
+    <v>3336997</v>
     <v>8196127</v>
     <v>1887</v>
   </rv>
@@ -1662,8 +1631,8 @@
     <v>546</v>
     <v>410.11</v>
     <v>0.24479999999999999</v>
-    <v>-4.4349999999999996</v>
-    <v>-9.3419999999999996E-3</v>
+    <v>-3.85</v>
+    <v>-8.1100000000000009E-3</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a global aerospace and defense company. The Company is engaged in the research, design, development, manufacture, integration and sustainment of advanced technology systems, products and services. Its segments include Aeronautics, Missiles and Fire Control (MFC), Rotary and Mission Systems (RMS) and Space. Aeronautics segment is engaged in the research, design, development, manufacture, integration, sustainment, support and upgrade of advanced military aircraft. MFC segment provides air and missile defense systems, manned and unmanned ground vehicles, energy management solutions, and others. RMS segment designs, manufactures, services and supports various military and commercial helicopters, surface ships, sea and land-based missile defense systems, and others. Its Space segment is engaged in the research and design, development, engineering and production of satellites, space transportation systems, and strategic, advanced strike, and defensive systems.</v>
     <v>121000</v>
@@ -1674,20 +1643,20 @@
     <v>472.38</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45980.620711666408</v>
+    <v>45980.656522789061</v>
     <v>49</v>
     <v>468.3</v>
-    <v>108822914373</v>
+    <v>108958282086</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>472.25</v>
-    <v>26.197199999999999</v>
+    <v>26.229800000000001</v>
     <v>474.72</v>
-    <v>470.28500000000003</v>
+    <v>470.87</v>
     <v>231397800</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>93199</v>
+    <v>179293</v>
     <v>1428059</v>
     <v>1994</v>
   </rv>
@@ -1713,8 +1682,8 @@
     <v>280.64</v>
     <v>206.38499999999999</v>
     <v>0.97399999999999998</v>
-    <v>6.8150000000000004</v>
-    <v>3.1038E-2</v>
+    <v>11.4397</v>
+    <v>5.21E-2</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. is a home improvement company. The Company offers a complete line of products for construction, maintenance, repair, remodeling, and decorating. It offers home improvement products in various categories, including appliances, seasonal and outdoor living, lumber, lawn and garden, kitchens and bath, hardware, building materials, millwork, paint, rough plumbing, tools, electrical, flooring, and decor. It is focused on offering a wide selection of national brand-name merchandise complemented by its selection of private brands. Its services include installed sales and Lowe's Protection Plans and Repair Services. The Company offers installation services through independent contractors in many of its product categories. It offers extended protection plans for certain products within the appliances, kitchens and bath, decor, millwork, rough plumbing, electrical, seasonal and outdoor living, tools, and hardware categories. It operates over 1,700 home improvement stores.</v>
     <v>161000</v>
@@ -1722,23 +1691,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>230.25</v>
+    <v>231.07</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45980.620705543748</v>
+    <v>45980.656489397654</v>
     <v>52</v>
     <v>224.26</v>
-    <v>126962344986</v>
+    <v>129555991901</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>229.48</v>
-    <v>18.610299999999999</v>
+    <v>18.990500000000001</v>
     <v>219.57</v>
-    <v>226.38499999999999</v>
+    <v>231.00970000000001</v>
     <v>560824900</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>1651779</v>
+    <v>3101540</v>
     <v>2676322</v>
     <v>1952</v>
   </rv>
@@ -1764,8 +1733,8 @@
     <v>85.25</v>
     <v>41.58</v>
     <v>0.72670000000000001</v>
-    <v>-0.81499999999999995</v>
-    <v>-1.8633E-2</v>
+    <v>-0.88100000000000001</v>
+    <v>-2.0142000000000004E-2</v>
     <v>USD</v>
     <v>LyondellBasell Industries N.V. is a global, independent chemical company creating solutions for everyday sustainable living. The Company's segments include Olefins and Polyolefins-Americas (O&amp;P-Americas), Olefins and Polyolefins-Europe, Asia, International (O&amp;P-EAI), Intermediates and Derivatives (I&amp;D), Advanced Polymer Solutions (APS), and Technology. The O&amp;P-Americas and O&amp;P-EAI segments produces and markets olefins and co-products, polyethylene, and polypropylene. The I&amp;D segment produces and markets propylene oxide (PO) and its derivatives, oxyfuels and related products, and intermediate chemicals, such as styrene monomer (SM), and acetyls. The APS segment produces and markets compounding and solutions, such as polypropylene compounds, engineered plastics, masterbatches, engineered composites, colors, and powders. The Technology segment develops and licenses chemical and polyolefin process technologies and manufactures and sells polyolefin catalysts.</v>
     <v>20000</v>
@@ -1776,7 +1745,7 @@
     <v>43.763300000000001</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45980.620653251564</v>
+    <v>45980.656478818753</v>
     <v>55</v>
     <v>42.789499999999997</v>
     <v>14078720000</v>
@@ -1785,11 +1754,11 @@
     <v>43.55</v>
     <v>0</v>
     <v>43.74</v>
-    <v>42.924999999999997</v>
+    <v>42.859000000000002</v>
     <v>321873000</v>
     <v>LYB</v>
     <v>LyondellBasell Industries NV (XNYS:LYB)</v>
-    <v>411689</v>
+    <v>867798</v>
     <v>5128309</v>
     <v>2009</v>
   </rv>
@@ -1815,8 +1784,8 @@
     <v>102.59</v>
     <v>79.290000000000006</v>
     <v>0.69510000000000005</v>
-    <v>0.39</v>
-    <v>3.869E-3</v>
+    <v>0.17</v>
+    <v>1.6869999999999999E-3</v>
     <v>USD</v>
     <v>Medtronic Public Limited Company is an Ireland-based company, which provides healthcare technology solutions. The Company’s products category includes Advanced Surgical Technology; Cardiac Rhythm; Cardiovascular; Digestive &amp; Gastrointestinal; Ear, Nose &amp; Throat; General Surgery; Gynecological; Neurological; Oral &amp; Maxillofacial; Patient Monitoring; Renal Care; Respiratory; Spinal &amp; Orthopedic; Surgical Navigation &amp; Imaging; Urological; Product Manuals; Product Ordering &amp; Inquiries; and Product Performance &amp; Advisories. Its products include Cardiac Implantable Electronic Device (CIED) Stabilization, Aortic Stent Graft Products, CareLink Personal Therapy Management Software, CareLink Pro Therapy Management Software. Its services and solutions include Ambulatory Surgery Center Resources, Care Management Services, Digital Connectivity Information Technology (IT) Support, Equipment Services and Support, Innovation Lab, Medtronic Healthcare Consulting, and Office-Based Sinus Surgery.</v>
     <v>95000</v>
@@ -1827,20 +1796,20 @@
     <v>102.59</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45980.620713228906</v>
+    <v>45980.656511145309</v>
     <v>58</v>
-    <v>100.77</v>
-    <v>129787913040</v>
+    <v>100.32</v>
+    <v>129505737520</v>
     <v>MEDTRONIC PUBLIC LIMITED COMPANY</v>
     <v>MEDTRONIC PUBLIC LIMITED COMPANY</v>
     <v>100.95</v>
-    <v>27.3597</v>
+    <v>27.3003</v>
     <v>100.8</v>
-    <v>101.19</v>
+    <v>100.97</v>
     <v>1282616000</v>
     <v>MDT</v>
     <v>MEDTRONIC PUBLIC LIMITED COMPANY (XNYS:MDT)</v>
-    <v>1806755</v>
+    <v>3390395</v>
     <v>6872253</v>
     <v>2014</v>
   </rv>
@@ -1895,24 +1864,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>24 Schilling Road, Suite 1, HUNT VALLEY, MD, 21031 US</v>
-    <v>65.209999999999994</v>
+    <v>66.23</v>
     <v>64</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45980.610426168751</v>
+    <v>45980.652572418752</v>
     <v>65</v>
     <v>65.12</v>
     <v>17460210000</v>
     <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
     <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
-    <v>65.209999999999994</v>
+    <v>66.23</v>
     <v>0</v>
     <v>64.37</v>
     <v>65.2</v>
     <v>268375700</v>
     <v>MKC.V</v>
     <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC.V)</v>
-    <v>747</v>
+    <v>753</v>
     <v>4168</v>
     <v>1915</v>
   </rv>
@@ -1954,8 +1923,8 @@
     <v>555.45000000000005</v>
     <v>344.79</v>
     <v>1.0728</v>
-    <v>-0.88</v>
-    <v>-1.7819999999999999E-3</v>
+    <v>-1.145</v>
+    <v>-2.3189999999999999E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
     <v>228000</v>
@@ -1963,24 +1932,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052 US</v>
-    <v>493.85</v>
+    <v>495.18720000000002</v>
     <v>70</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45980.620701909378</v>
+    <v>45980.656503113278</v>
     <v>71</v>
     <v>488.95</v>
-    <v>3663492947070</v>
+    <v>3661523367165</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
     <v>489.46</v>
-    <v>35.069099999999999</v>
+    <v>35.050199999999997</v>
     <v>493.79</v>
-    <v>492.91</v>
+    <v>492.64499999999998</v>
     <v>7432377000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>2460841</v>
+    <v>4645801</v>
     <v>23351736</v>
     <v>1993</v>
   </rv>
@@ -2006,8 +1975,8 @@
     <v>82.44</v>
     <v>52.28</v>
     <v>1.2855000000000001</v>
-    <v>0.04</v>
-    <v>6.401E-4</v>
+    <v>0.47499999999999998</v>
+    <v>7.6010000000000001E-3</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>77800</v>
@@ -2015,23 +1984,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>62.61</v>
+    <v>63.215000000000003</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45980.620670046097</v>
+    <v>45980.656505289066</v>
     <v>74</v>
     <v>62.01</v>
-    <v>92431908530</v>
+    <v>93074925965</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
     <v>62.25</v>
-    <v>32.046900000000001</v>
+    <v>32.2699</v>
     <v>62.49</v>
-    <v>62.53</v>
+    <v>62.965000000000003</v>
     <v>1478201000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>681596</v>
+    <v>2096092</v>
     <v>14196497</v>
     <v>1969</v>
   </rv>
@@ -2057,8 +2026,8 @@
     <v>61.085000000000001</v>
     <v>50.71</v>
     <v>0.79810000000000003</v>
-    <v>-0.04</v>
-    <v>-6.9760000000000004E-4</v>
+    <v>-0.35499999999999998</v>
+    <v>-6.1909999999999995E-3</v>
     <v>USD</v>
     <v>Realty Income Corporation is a real estate investment trust. The Company is engaged in acquiring and managing freestanding commercial properties that generate rental revenue under long-term net lease agreements with its commercial clients. It is engaged in a single business activity, which is the leasing of property to clients, generally on a net basis. That business activity spans various geographic boundaries and includes property types and clients engaged in various industries. The Company owns or holds interests in approximately 15,621 properties located in all 50 United States (U.S.) states, the United Kingdom, France, Germany, Ireland, Italy, Portugal, and Spain with clients doing business in 89 industries. Its property types include retail, industrial, gaming and others, such as agriculture and office. Its primary industry concentrations include grocery stores, convenience stores, dollar stores, drug stores, home improvement, restaurants-quick service and others.</v>
     <v>468</v>
@@ -2069,20 +2038,20 @@
     <v>57.41</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>45980.620662904686</v>
+    <v>45980.656477823439</v>
     <v>77</v>
-    <v>57.25</v>
-    <v>52710602340</v>
+    <v>56.924999999999997</v>
+    <v>52420832013</v>
     <v>REALTY INCOME CORPORATION</v>
     <v>REALTY INCOME CORPORATION</v>
     <v>57.39</v>
-    <v>53.526400000000002</v>
+    <v>53.232100000000003</v>
     <v>57.34</v>
-    <v>57.3</v>
+    <v>56.984999999999999</v>
     <v>919905800</v>
     <v>O</v>
     <v>REALTY INCOME CORPORATION (XNYS:O)</v>
-    <v>346974</v>
+    <v>957273</v>
     <v>5844504</v>
     <v>1997</v>
   </rv>
@@ -2108,8 +2077,8 @@
     <v>165.13</v>
     <v>127.6</v>
     <v>0.41299999999999998</v>
-    <v>-0.66</v>
-    <v>-4.4359999999999998E-3</v>
+    <v>-0.42</v>
+    <v>-2.823E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a global beverage and convenient food company. The Company’s segments include PepsiCo Foods North America (PFNA), PepsiCo Beverages North America (PBNA), International Beverages Franchise (IB Franchise), Europe, Middle East and Africa (EMEA), Latin America Foods (LatAm Foods), and Asia Pacific Foods. PFNA segment includes all of its convenient food businesses in the United States and Canada. PBNA segment includes all of its beverage businesses in the United States and Canada. IB Franchise segment includes its international franchise beverage businesses, as well as its SodaStream business. EMEA segment includes its convenient food businesses and beverage businesses with Company-owned bottlers in Europe, the Middle East and Africa. LatAm Foods segment includes all of its convenient food businesses in Latin America. Asia Pacific Foods segment consists of its convenient food businesses in Asia Pacific, including China, Australia and New Zealand, as well as India.</v>
     <v>319000</v>
@@ -2117,23 +2086,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>148.66999999999999</v>
+    <v>148.78</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45980.620674710153</v>
+    <v>45980.656498495315</v>
     <v>80</v>
     <v>147.76</v>
-    <v>202516727400</v>
+    <v>202844889000</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
     <v>148.30000000000001</v>
-    <v>28.1631</v>
+    <v>28.2088</v>
     <v>148.77000000000001</v>
-    <v>148.11000000000001</v>
+    <v>148.35</v>
     <v>1367340000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>429546</v>
+    <v>966759</v>
     <v>6664471</v>
     <v>1986</v>
   </rv>
@@ -2159,8 +2128,8 @@
     <v>125.41500000000001</v>
     <v>93.3</v>
     <v>0.19889999999999999</v>
-    <v>-2.02</v>
-    <v>-1.8932999999999998E-2</v>
+    <v>-1.47</v>
+    <v>-1.3777999999999999E-2</v>
     <v>USD</v>
     <v>The J. M. Smucker Company is engaged in the manufacturing and marketing of branded food and beverage products on a worldwide basis. The Company’s branded food and beverage products include a portfolio of brands that are sold to consumers primarily through retail outlets in North America. The Company operates through four segments: U.S. Retail Coffee, U.S. Retail Frozen Handheld and Spreads, and U.S. Retail Pet Foods, and Sweet Baked Snacks. The U.S. Retail Coffee segment primarily includes the domestic sales of Folgers, Dunkin’, and Cafe Bustelo branded coffee. The U.S. Retail Frozen Handheld and Spreads segment primarily includes the domestic sales of Uncrustables, Jif, and Smucker’s branded products. The U.S. Retail Pet Foods segment primarily includes the domestic sales of Meow Mix, Milk-Bone, Pup-Peroni, and Canine Carry Outs branded products. The Sweet Baked Snacks segment primarily includes all domestic and foreign sales of Hostess branded products across all channels.</v>
     <v>8000</v>
@@ -2171,20 +2140,20 @@
     <v>106.69</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45980.620597117966</v>
+    <v>45980.656478448436</v>
     <v>83</v>
-    <v>104.67</v>
+    <v>104.3</v>
     <v>11382240000</v>
     <v>THE J. M. SMUCKER COMPANY</v>
     <v>THE J. M. SMUCKER COMPANY</v>
     <v>106.52</v>
     <v>0</v>
     <v>106.69</v>
-    <v>104.67</v>
+    <v>105.22</v>
     <v>106685200</v>
     <v>SJM</v>
     <v>THE J. M. SMUCKER COMPANY (XNYS:SJM)</v>
-    <v>79351</v>
+    <v>188142</v>
     <v>1612215</v>
     <v>1921</v>
   </rv>
@@ -2210,8 +2179,8 @@
     <v>190.13499999999999</v>
     <v>136.34</v>
     <v>1.3771</v>
-    <v>-0.08</v>
-    <v>-4.3970000000000001E-4</v>
+    <v>0.15</v>
+    <v>8.2449999999999993E-4</v>
     <v>USD</v>
     <v>Simon Property Group, Inc. is a self-administered and self-managed real estate investment trust. The Company owns, develops and manages premier shopping, dining, entertainment and mixed-use destinations, which consist primarily of malls, Premium Outlets, The Mills, and International Properties. It owns approximately 250 plus global properties. Its properties include Apple Blossom Mall, Auburn Mall, Barton Creek Square, Battlefield Mall, Bay Park Square, Brea Mall, Briarwood Mall, Brickell City Centre, Broadway Square, Burlington Mall, Cape Cod Mall, Castleton Square, Cielo Vista Mall, Coconut Point, College Mall, Columbia Center, Copley Place, Coral Square, Cordova Mall, Dadeland Mall, Del Amo Fashion Center, Empire Mall, Firewheel Town Center, Greenwood Park Mall, Haywood Mall, King of Prussia, La Plaza, Lakeline Mall, Lenox Square, Mall of Georgia, Meadowood Mall, Menlo Park Mall, Miami International Mall, North East Mall, Ocean County Mall, Pheasant Lane Mall, and Phillips Place.</v>
     <v>2400</v>
@@ -2222,20 +2191,20 @@
     <v>182.58500000000001</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>45980.620699015628</v>
+    <v>45980.656506631247</v>
     <v>86</v>
     <v>181.19499999999999</v>
-    <v>59368587685</v>
+    <v>59443675808</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>182.23500000000001</v>
-    <v>21.289200000000001</v>
+    <v>21.316099999999999</v>
     <v>181.93</v>
-    <v>181.85</v>
+    <v>182.08</v>
     <v>326470100</v>
     <v>SPG</v>
     <v>SIMON PROPERTY GROUP, INC. (XNYS:SPG)</v>
-    <v>29913</v>
+    <v>75326</v>
     <v>1331269</v>
     <v>1998</v>
   </rv>
@@ -2261,8 +2230,8 @@
     <v>29.79</v>
     <v>21.38</v>
     <v>0.35470000000000002</v>
-    <v>-0.155</v>
-    <v>-6.0550000000000005E-3</v>
+    <v>-0.34920000000000001</v>
+    <v>-1.3641E-2</v>
     <v>USD</v>
     <v>AT&amp;T Inc. is a holding company. The Company is a provider of telecommunications and technology services globally. The Company’s segments include Communications and Latin America. The Communications segment provides wireless and wireline telecom and broadband services to consumers located in the United States and businesses globally. The business units of the Communication segment include Mobility, Business Wireline, and Consumer Wireline. Mobility provides nationwide wireless service and equipment. Business Wireline provides advanced Ethernet-based fiber services, Internet Protocol (IP) Voice and managed professional services, as well as legacy voice and data services and related equipment, to business customers. Consumer Wireline provides broadband services, including fiber connections. Consumer Wireline provides legacy telephony voice communication services. The Latin America segment provides wireless services and equipment in Mexico.</v>
     <v>135670</v>
@@ -2273,20 +2242,20 @@
     <v>25.67</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45980.620700115622</v>
+    <v>45980.656485335159</v>
     <v>89</v>
-    <v>25.44</v>
-    <v>180391055250</v>
+    <v>25.234999999999999</v>
+    <v>179014284060</v>
     <v>AT&amp;T INC.</v>
     <v>AT&amp;T INC.</v>
     <v>25.61</v>
-    <v>8.2562999999999995</v>
+    <v>8.1933000000000007</v>
     <v>25.6</v>
-    <v>25.445</v>
+    <v>25.250800000000002</v>
     <v>7089450000</v>
     <v>T</v>
     <v>AT&amp;T INC. (XNYS:T)</v>
-    <v>1948355</v>
+    <v>5508467</v>
     <v>67793689</v>
     <v>1983</v>
   </rv>
@@ -2328,8 +2297,8 @@
     <v>125.8078</v>
     <v>77.849999999999994</v>
     <v>1.5381</v>
-    <v>0.153</v>
-    <v>1.57E-3</v>
+    <v>0.12</v>
+    <v>1.2310000000000001E-3</v>
     <v>USD</v>
     <v>T. Rowe Price Group, Inc. is a financial services holding company that provides global investment advisory services to investors. It provides a range of investment solutions across equity, fixed income, multi-asset, and alternative capabilities for clients from individuals to advisors to institutions to retirement plan sponsors. It also provides certain investment advisory clients with related administrative services, including distribution, mutual fund transfer agent, accounting, and shareholder services; participant recordkeeping and transfer agent services for defined contribution retirement plans; brokerage; trust services, and non-discretionary advisory services through model delivery. It distributes its array of active investment solutions through a diverse set of distribution channels and vehicles. These vehicles include an array of U.S. mutual funds, collective investment trusts, exchange-traded funds, subadvised funds, separately managed accounts, and other sponsored products.</v>
     <v>8158</v>
@@ -2337,24 +2306,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>Harbor Point, 1307 Point Street, BALTIMORE, MD, 21231 US</v>
-    <v>97.834999999999994</v>
+    <v>98.16</v>
     <v>94</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45980.620627175784</v>
+    <v>45980.656500231249</v>
     <v>95</v>
     <v>97.217500000000001</v>
-    <v>21307133021</v>
+    <v>21299931200</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>97.63</v>
-    <v>10.634399999999999</v>
+    <v>10.630800000000001</v>
     <v>97.48</v>
-    <v>97.632999999999996</v>
+    <v>97.6</v>
     <v>218237000</v>
     <v>TROW</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>65405</v>
+    <v>197667</v>
     <v>1646953</v>
     <v>2000</v>
   </rv>
@@ -2392,9 +2361,9 @@
     <v>53.8703</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>45980.620610335158</v>
+    <v>45980.656451967188</v>
     <v>98</v>
-    <v>53.34</v>
+    <v>53.23</v>
     <v>18902516514</v>
     <v>TYSON FOODS, INCORPORATED</v>
     <v>TYSON FOODS, INCORPORATED</v>
@@ -2405,7 +2374,7 @@
     <v>353054100</v>
     <v>TSN</v>
     <v>TYSON FOODS, INCORPORATED (XNYS:TSN)</v>
-    <v>113155</v>
+    <v>275461</v>
     <v>2966288</v>
     <v>1986</v>
   </rv>
@@ -2431,8 +2400,8 @@
     <v>221.69</v>
     <v>139.94999999999999</v>
     <v>0.99119999999999997</v>
-    <v>0.35</v>
-    <v>2.225E-3</v>
+    <v>1</v>
+    <v>6.3560000000000005E-3</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated is a global semiconductor company that designs, manufactures, tests, and sells analog and embedded processing chips for markets, such as industrial, automotive, personal electronics, communications equipment, and enterprise systems. Its Analog segment includes product lines, such as Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Its portfolio is designed to manage power requirements across different voltage levels, including battery-management solutions, DC/DC switching regulators, AC/DC and isolated DC/DC switching regulators, power switches, linear and low-dropout regulators, voltage references, and others. Signal Chain includes products that sense, condition, and measure real-world signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs) and applications processors.</v>
     <v>34000</v>
@@ -2440,23 +2409,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>157.81</v>
+    <v>159.17150000000001</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45980.620684120309</v>
+    <v>45980.656493876566</v>
     <v>101</v>
     <v>155.13</v>
-    <v>143262588410</v>
+    <v>143853193360</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>156.57</v>
-    <v>28.7714</v>
+    <v>28.89</v>
     <v>157.32</v>
-    <v>157.66999999999999</v>
+    <v>158.32</v>
     <v>908623000</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>567688</v>
+    <v>987748</v>
     <v>8821948</v>
     <v>1938</v>
   </rv>
@@ -2482,8 +2451,8 @@
     <v>138.66999999999999</v>
     <v>82</v>
     <v>1.0922000000000001</v>
-    <v>-0.02</v>
-    <v>-2.154E-4</v>
+    <v>0.55000000000000004</v>
+    <v>5.9250000000000006E-3</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. provides a range of integrated logistics solutions for customers in more than 200 countries and territories. Its U.S. Domestic Package segment offers a range of United States domestic air and ground package transportation services. Its air portfolio offers time-definite, same-day, next-day, two-day and three-day delivery alternatives as well as air cargo services. Its ground network enables customers to ship using its day-definite ground service. UPS SurePost provides residential ground service for customers with non-urgent, lightweight residential shipments. Its International Package segment consists of small package operations in Europe, Indian sub-continent, Middle East and Africa, Canada and Latin America and Asia. It offers a selection of guaranteed day- and time-definite international shipping services. Its supply chain solutions consist of forwarding, logistics, customized third-party logistics and specialized cold chain transportation solutions.</v>
     <v>490000</v>
@@ -2491,23 +2460,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>93.394999999999996</v>
+    <v>93.74</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45980.620627187498</v>
+    <v>45980.656505751562</v>
     <v>104</v>
     <v>92.375</v>
-    <v>78738667536</v>
+    <v>79222247328</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>93.23</v>
-    <v>14.341799999999999</v>
+    <v>14.4299</v>
     <v>92.83</v>
-    <v>92.81</v>
+    <v>93.38</v>
     <v>848385600</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>402204</v>
+    <v>1056579</v>
     <v>8085778</v>
     <v>1999</v>
   </rv>
@@ -2533,8 +2502,8 @@
     <v>47.354999999999997</v>
     <v>37.585000000000001</v>
     <v>0.30480000000000002</v>
-    <v>-0.17499999999999999</v>
-    <v>-4.2189999999999997E-3</v>
+    <v>-0.25</v>
+    <v>-6.0270000000000002E-3</v>
     <v>USD</v>
     <v>Verizon Communications Inc. is a holding company. The Company, through its subsidiaries, provides communications, technology, information and streaming products and services to consumers, businesses and government entities. Its Consumer segment provides wireless and wireline communications services. It also provides fixed wireless access (FWA) broadband through its 5G or 4G Long-Term Evolution (LTE) networks portfolio. The Company's Business segment provides wireless and wireline communications services and products, including FWA broadband, data, video and advanced communication services, corporate networking solutions, security and managed network services, local and long-distance voice services and network access to deliver various Internet of Things (IoT) services and products. It provides these products and services to businesses, public sector customers and wireless and wireline carriers across the U.S. and a subset of these products and services to customers around the world.</v>
     <v>99600</v>
@@ -2545,20 +2514,20 @@
     <v>41.61</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45980.620662789064</v>
+    <v>45980.656494328126</v>
     <v>107</v>
-    <v>41.284999999999997</v>
-    <v>174159434625</v>
+    <v>41.21</v>
+    <v>173843202750</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>41.49</v>
-    <v>8.8056999999999999</v>
+    <v>8.7896999999999998</v>
     <v>41.48</v>
-    <v>41.305</v>
+    <v>41.23</v>
     <v>4216425000</v>
     <v>VZ</v>
     <v>VERIZON COMMUNICATIONS INC. (XNYS:VZ)</v>
-    <v>2034597</v>
+    <v>5394290</v>
     <v>30521627</v>
     <v>1983</v>
   </rv>
@@ -2584,8 +2553,8 @@
     <v>167.15</v>
     <v>56.32</v>
     <v>1.7956000000000001</v>
-    <v>6.0650000000000004</v>
-    <v>4.2342000000000005E-2</v>
+    <v>6.48</v>
+    <v>4.5239000000000001E-2</v>
     <v>USD</v>
     <v>Lam Research Corporation is a global supplier of wafer fabrication equipment and services to the semiconductor industry. The Company designs, manufactures, markets, refurbishes, and services semiconductor processing equipment used in the fabrication of integrated circuits. Its products and services are designed to help its customers build devices that are used in a variety of electronic products, including mobile phones, personal computers, servers, wearables, automotive vehicles, and data storage devices. Its product families include ALTUS, SABRE, SPEED, Striker, VECTOR, Flex, Vantex, Kiyo, Versys Metal, Syndion, Coronus, and DV-Prime, Da Vinci, EOS, and SP Series. Its customer base includes semiconductor memory, foundries, and integrated device manufacturers that make products such as non-volatile memory, dynamic random-access memory, and logic devices. It offers services in areas, such as nanoscale applications enablement, chemistry, plasma and fluidics, and others.</v>
     <v>19000</v>
@@ -2593,23 +2562,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4650 Cushing Blvd, FREMONT, CA, 94538 US</v>
-    <v>149.33260000000001</v>
+    <v>150.38</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45980.620707140624</v>
+    <v>45980.656499883597</v>
     <v>110</v>
     <v>145.57</v>
-    <v>187531559150</v>
+    <v>188052811600</v>
     <v>LAM RESEARCH CORPORATION</v>
     <v>LAM RESEARCH CORPORATION</v>
     <v>146.77000000000001</v>
-    <v>32.8996</v>
+    <v>32.991100000000003</v>
     <v>143.24</v>
-    <v>149.30500000000001</v>
+    <v>149.72</v>
     <v>1256030000</v>
     <v>LRCX</v>
     <v>LAM RESEARCH CORPORATION (XNAS:LRCX)</v>
-    <v>1229907</v>
+    <v>2386802</v>
     <v>10875194</v>
     <v>1989</v>
   </rv>
@@ -2651,8 +2620,8 @@
     <v>326.32</v>
     <v>276.52999999999997</v>
     <v>0.51429999999999998</v>
-    <v>-1.29</v>
-    <v>-4.235E-3</v>
+    <v>-1.83</v>
+    <v>-6.0080000000000003E-3</v>
     <v>USD</v>
     <v>McDonald's Corporation is a global foodservice retailer. Its segment includes U.S., International Operated Markets, and International Developmental Licensed Markets &amp; Corporate. The U.S. segment is its largest market and is 95% franchised. The International Operated Markets segment is comprised of markets, or countries in which it operates and franchises restaurants, including Australia, Canada, France, Germany, Italy, Poland, Spain, and the United Kingdom. This segment is 89% franchised. The International Developmental Licensed Markets &amp; Corporate segment is comprised of developmental licensee and affiliate markets, including equity method investments in China and Japan. This segment is 99% franchised. Its menu features hamburgers and cheeseburgers, the Big Mac, the Quarter Pounder with Cheese, the Filet-O-Fish, and several chicken sandwiches, such as the McChicken and McCrispy as well as Chicken McNuggets, Fries, shakes, sundaes, cookies, soft drinks, coffee, and other beverages.</v>
     <v>150000</v>
@@ -2664,20 +2633,20 @@
     <v>115</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45980.620688251562</v>
+    <v>45980.656486411717</v>
     <v>116</v>
-    <v>303.25</v>
-    <v>215996429520</v>
+    <v>302.58499999999998</v>
+    <v>215611866144</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>304.35000000000002</v>
-    <v>25.8689</v>
+    <v>25.822800000000001</v>
     <v>304.58999999999997</v>
-    <v>303.3</v>
+    <v>302.76</v>
     <v>712154400</v>
     <v>MCD</v>
     <v>MCDONALD'S CORPORATION (XNYS:MCD)</v>
-    <v>126341</v>
+    <v>302554</v>
     <v>2918477</v>
     <v>1964</v>
   </rv>
@@ -2703,8 +2672,8 @@
     <v>150.44999999999999</v>
     <v>99.22</v>
     <v>0.2923</v>
-    <v>-0.89</v>
-    <v>-8.6199999999999992E-3</v>
+    <v>-0.90749999999999997</v>
+    <v>-8.7889999999999999E-3</v>
     <v>USD</v>
     <v>Kimberly-Clark Corporation is engaged in the manufacturing and marketing of a wide range of products made from natural or synthetic fibers and materials using advanced technologies in fibers, nonwovens and absorbency. The Company’s segments include North America (NA), International Personal Care (IPC) and International Family Care and Professional (IFP). Its NA segment offers disposable diapers, training and youth pants, swim pants, baby wipes, and other products. These products are sold under the Huggies, Pull-Ups, GoodNites, Kotex, Poise, Depend, and other brand names. Its IPC segment consists of three categories, such as Baby &amp; Child Care, Adult Care and Feminine Care, including disposable diapers, and other products, and are sold under the Huggies, Kotex, Goodfeel, Intimus, Depend and other brand names. Its IFP segment consists of two categories-Family Care and Professional, including facial and bathroom tissue, and are sold under the Kleenex, Scottex, Wypall and other brand names.</v>
     <v>38000</v>
@@ -2715,20 +2684,20 @@
     <v>103.25</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45980.6206609375</v>
+    <v>45980.656447128909</v>
     <v>119</v>
-    <v>102.18</v>
-    <v>33969025824</v>
+    <v>101.76</v>
+    <v>33963218302</v>
     <v>KIMBERLY-CLARK CORPORATION</v>
     <v>KIMBERLY-CLARK CORPORATION</v>
     <v>103.15</v>
-    <v>19.0611</v>
+    <v>19.0578</v>
     <v>103.25</v>
-    <v>102.36</v>
+    <v>102.3425</v>
     <v>331858400</v>
     <v>KMB</v>
     <v>KIMBERLY-CLARK CORPORATION (XNAS:KMB)</v>
-    <v>398243</v>
+    <v>1149860</v>
     <v>6709487</v>
     <v>1928</v>
   </rv>
@@ -3329,7 +3298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0CA35FE-2F53-A347-8AD6-B5C0C701EF5E}" name="table1" displayName="table1" ref="A1:U37" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0CA35FE-2F53-A347-8AD6-B5C0C701EF5E}" name="table1" displayName="table1" ref="A1:U37" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:U37" xr:uid="{E0CA35FE-2F53-A347-8AD6-B5C0C701EF5E}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{C30BA928-9F86-944B-8C90-D8A30FE247CA}" name="DataField"/>
@@ -3346,29 +3315,29 @@
     <tableColumn id="26" xr3:uid="{85DE2754-F5A4-EB49-A389-4F92D36846D6}" name="Theory"/>
     <tableColumn id="15" xr3:uid="{5CE60AD8-D2E2-824F-96BA-36B9112CF575}" name="Div"/>
     <tableColumn id="4" xr3:uid="{FFE5A046-78F8-1643-BE81-C614C0845FBA}" name="DivGro"/>
-    <tableColumn id="6" xr3:uid="{E90EDA1C-8BB7-7F4E-BCAF-FAF9570B8A38}" name="Price" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{E90EDA1C-8BB7-7F4E-BCAF-FAF9570B8A38}" name="Price" dataDxfId="9">
       <calculatedColumnFormula array="1">_FV(table1[[#This Row],[DataField]],"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{87A4EE6D-E7C3-CE41-BBA3-78EC20CDEBEE}" name="52Low" dataDxfId="11">
+    <tableColumn id="17" xr3:uid="{87A4EE6D-E7C3-CE41-BBA3-78EC20CDEBEE}" name="52Low" dataDxfId="8">
       <calculatedColumnFormula array="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D9B78892-8229-7243-8D05-F357BF8638BD}" name="52High" dataDxfId="10">
+    <tableColumn id="18" xr3:uid="{D9B78892-8229-7243-8D05-F357BF8638BD}" name="52High" dataDxfId="7">
       <calculatedColumnFormula array="1">_FV(table1[[#This Row],[DataField]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{78C713E7-4AD7-B542-970C-49F40A7186F4}" name="P/E" dataDxfId="9" dataCellStyle="Comma">
+    <tableColumn id="20" xr3:uid="{78C713E7-4AD7-B542-970C-49F40A7186F4}" name="P/E" dataDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{E4C0A9B5-EE77-584C-891E-3C3F027773E4}" name="LastDump" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{7CC54F3F-E5AD-804B-9D12-23FD72A661FB}" name="Watch" dataDxfId="7">
+    <tableColumn id="23" xr3:uid="{7CC54F3F-E5AD-804B-9D12-23FD72A661FB}" name="Watch" dataDxfId="5">
       <calculatedColumnFormula>IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{8E6233F4-6662-6E46-AF2F-77ADB7B9257D}" name="Alert" dataDxfId="2">
+    <tableColumn id="24" xr3:uid="{8E6233F4-6662-6E46-AF2F-77ADB7B9257D}" name="Alert" dataDxfId="4">
       <calculatedColumnFormula>IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{0C4A33EE-ED89-2F4F-BCD3-9651E2BEED77}" name="MarketCap" dataDxfId="1">
+    <tableColumn id="28" xr3:uid="{0C4A33EE-ED89-2F4F-BCD3-9651E2BEED77}" name="MarketCap" dataDxfId="3">
       <calculatedColumnFormula array="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{762F024A-D292-E849-9EE1-3ED9A762FAAE}" name="Markets" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{5F71DA07-B267-B444-9116-D098CA04D44F}" name="EconomicMoat" dataDxfId="0"/>
+    <tableColumn id="29" xr3:uid="{762F024A-D292-E849-9EE1-3ED9A762FAAE}" name="Markets" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3693,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA31AA4-973A-894D-81A9-C7ED9652DABE}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3706,6 +3675,7 @@
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -3713,11 +3683,11 @@
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.5" style="6" customWidth="1"/>
+    <col min="21" max="21" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -3746,10 +3716,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>18</v>
@@ -3775,11 +3745,11 @@
       <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
+      <c r="S1" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>8</v>
@@ -3805,9 +3775,18 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
       <c r="M2" s="2" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>269.505</v>
+        <v>270.995</v>
       </c>
       <c r="N2" s="2" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -3819,22 +3798,26 @@
       </c>
       <c r="P2" s="4" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>36.289099999999998</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="str">
+        <v>36.489800000000002</v>
+      </c>
+      <c r="Q2" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S2" s="2" t="str">
+      <c r="R2" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T2" s="6" cm="1">
-        <f t="array" aca="1" ref="T2" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>3982300206750</v>
-      </c>
-      <c r="U2" s="2"/>
+      <c r="S2" s="6" cm="1">
+        <f t="array" aca="1" ref="S2" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>4004316968250</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="e" vm="2">
@@ -3858,7 +3841,7 @@
       </c>
       <c r="M3" s="2" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>59.545000000000002</v>
+        <v>59.65</v>
       </c>
       <c r="N3" s="2" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -3870,19 +3853,18 @@
       </c>
       <c r="P3" s="4" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>24.154199999999999</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="str">
+        <v>24.1968</v>
+      </c>
+      <c r="Q3" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S3" s="2" t="str">
+      <c r="R3" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T3" s="6" cm="1">
-        <f t="array" aca="1" ref="T3" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S3" s="6" cm="1">
+        <f t="array" aca="1" ref="S3" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>29329170000</v>
       </c>
       <c r="U3" s="2"/>
@@ -3909,7 +3891,7 @@
       </c>
       <c r="M4" s="2" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>46.37</v>
+        <v>46.619900000000001</v>
       </c>
       <c r="N4" s="2" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -3923,17 +3905,16 @@
         <f t="array" ref="P4">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="str">
+      <c r="Q4" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S4" s="2" t="str">
+      <c r="R4" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T4" s="6" cm="1">
-        <f t="array" aca="1" ref="T4" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S4" s="6" cm="1">
+        <f t="array" aca="1" ref="S4" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>10304279272.74</v>
       </c>
       <c r="U4" s="2"/>
@@ -3960,7 +3941,7 @@
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>219.44</v>
+        <v>220.41499999999999</v>
       </c>
       <c r="N5" s="2" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -3972,20 +3953,19 @@
       </c>
       <c r="P5" s="4" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>30.998699999999999</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="str">
+        <v>31.136500000000002</v>
+      </c>
+      <c r="Q5" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S5" s="2" t="str">
+      <c r="R5" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T5" s="6" cm="1">
-        <f t="array" aca="1" ref="T5" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>2345861876800</v>
+      <c r="S5" s="6" cm="1">
+        <f t="array" aca="1" ref="S5" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>2356284841300</v>
       </c>
       <c r="U5" s="2"/>
     </row>
@@ -4011,7 +3991,7 @@
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>1023.19</v>
+        <v>1017.245</v>
       </c>
       <c r="N6" s="2" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4023,20 +4003,19 @@
       </c>
       <c r="P6" s="4" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>26.590299999999999</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2" t="str">
+        <v>26.4358</v>
+      </c>
+      <c r="Q6" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S6" s="2" t="str">
+      <c r="R6" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T6" s="6" cm="1">
-        <f t="array" aca="1" ref="T6" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>158748849371</v>
+      <c r="S6" s="6" cm="1">
+        <f t="array" aca="1" ref="S6" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>157826477270</v>
       </c>
       <c r="U6" s="2"/>
     </row>
@@ -4062,7 +4041,7 @@
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>46.265000000000001</v>
+        <v>46.130099999999999</v>
       </c>
       <c r="N7" s="2" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4074,20 +4053,19 @@
       </c>
       <c r="P7" s="4" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>15.6539</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="str">
+        <v>15.6082</v>
+      </c>
+      <c r="Q7" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="R7" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T7" s="6" cm="1">
-        <f t="array" aca="1" ref="T7" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>94184112545</v>
+      <c r="S7" s="6" cm="1">
+        <f t="array" aca="1" ref="S7" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>93909489465</v>
       </c>
       <c r="U7" s="2"/>
     </row>
@@ -4113,7 +4091,7 @@
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>99.98</v>
+        <v>99.995000000000005</v>
       </c>
       <c r="N8" s="2" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4125,20 +4103,19 @@
       </c>
       <c r="P8" s="4" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>15.6691</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="str">
+        <v>15.6715</v>
+      </c>
+      <c r="Q8" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S8" s="2" t="str">
+      <c r="R8" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T8" s="6" cm="1">
-        <f t="array" aca="1" ref="T8" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>12195600392</v>
+      <c r="S8" s="6" cm="1">
+        <f t="array" aca="1" ref="S8" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>12197430098</v>
       </c>
       <c r="U8" s="2"/>
     </row>
@@ -4164,7 +4141,7 @@
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>27.094999999999999</v>
+        <v>27.04</v>
       </c>
       <c r="N9" s="2" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4176,20 +4153,19 @@
       </c>
       <c r="P9" s="4" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>4.4987000000000004</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="str">
+        <v>4.4894999999999996</v>
+      </c>
+      <c r="Q9" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S9" s="2" t="str">
+      <c r="R9" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T9" s="6" cm="1">
-        <f t="array" aca="1" ref="T9" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>98731335025</v>
+      <c r="S9" s="6" cm="1">
+        <f t="array" aca="1" ref="S9" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>98530920800</v>
       </c>
       <c r="U9" s="2"/>
     </row>
@@ -4215,7 +4191,7 @@
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>76.94</v>
+        <v>77.127499999999998</v>
       </c>
       <c r="N10" s="2" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4227,19 +4203,18 @@
       </c>
       <c r="P10" s="4" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>201.5719</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="str">
+        <v>202.06309999999999</v>
+      </c>
+      <c r="Q10" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S10" s="2" t="str">
+      <c r="R10" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T10" s="6" cm="1">
-        <f t="array" aca="1" ref="T10" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S10" s="6" cm="1">
+        <f t="array" aca="1" ref="S10" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>98939570000</v>
       </c>
       <c r="U10" s="2"/>
@@ -4266,7 +4241,7 @@
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>150.37</v>
+        <v>150.77000000000001</v>
       </c>
       <c r="N11" s="2" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4278,20 +4253,19 @@
       </c>
       <c r="P11" s="4" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>21.233000000000001</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="str">
+        <v>21.2895</v>
+      </c>
+      <c r="Q11" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S11" s="2" t="str">
+      <c r="R11" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T11" s="6" cm="1">
-        <f t="array" aca="1" ref="T11" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>302773303140</v>
+      <c r="S11" s="6" cm="1">
+        <f t="array" aca="1" ref="S11" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>303578711940</v>
       </c>
       <c r="U11" s="2"/>
     </row>
@@ -4317,7 +4291,7 @@
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>57.305</v>
+        <v>57.57</v>
       </c>
       <c r="N12" s="2" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4329,20 +4303,19 @@
       </c>
       <c r="P12" s="4" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>9.5474999999999994</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="str">
+        <v>9.5915999999999997</v>
+      </c>
+      <c r="Q12" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S12" s="2" t="str">
+      <c r="R12" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T12" s="6" cm="1">
-        <f t="array" aca="1" ref="T12" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>6536769889</v>
+      <c r="S12" s="6" cm="1">
+        <f t="array" aca="1" ref="S12" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>6566998386</v>
       </c>
       <c r="U12" s="2"/>
     </row>
@@ -4368,7 +4341,7 @@
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>30.71</v>
+        <v>30.78</v>
       </c>
       <c r="N13" s="2" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4382,17 +4355,16 @@
         <f t="array" ref="P13">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="str">
+      <c r="Q13" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S13" s="2" t="str">
+      <c r="R13" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T13" s="6" cm="1">
-        <f t="array" aca="1" ref="T13" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S13" s="6" cm="1">
+        <f t="array" aca="1" ref="S13" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>307474141.51999998</v>
       </c>
       <c r="U13" s="2"/>
@@ -4419,7 +4391,7 @@
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>339.88</v>
+        <v>340.63</v>
       </c>
       <c r="N14" s="2" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4431,20 +4403,19 @@
       </c>
       <c r="P14" s="4" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>22.035399999999999</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="str">
+        <v>22.084</v>
+      </c>
+      <c r="Q14" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S14" s="2" t="str">
+      <c r="R14" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T14" s="6" cm="1">
-        <f t="array" aca="1" ref="T14" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>91808555540</v>
+      <c r="S14" s="6" cm="1">
+        <f t="array" aca="1" ref="S14" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>92011145915</v>
       </c>
       <c r="U14" s="2"/>
     </row>
@@ -4470,7 +4441,7 @@
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>333.017</v>
+        <v>334.07</v>
       </c>
       <c r="N15" s="2" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4482,20 +4453,19 @@
       </c>
       <c r="P15" s="4" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>22.714300000000001</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="str">
+        <v>22.786100000000001</v>
+      </c>
+      <c r="Q15" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S15" s="2" t="str">
+      <c r="R15" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T15" s="6" cm="1">
-        <f t="array" aca="1" ref="T15" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>331480692673</v>
+      <c r="S15" s="6" cm="1">
+        <f t="array" aca="1" ref="S15" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>332528834869</v>
       </c>
       <c r="U15" s="2"/>
     </row>
@@ -4521,7 +4491,7 @@
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>182.36</v>
+        <v>182.155</v>
       </c>
       <c r="N16" s="2" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4533,20 +4503,19 @@
       </c>
       <c r="P16" s="4" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>21.009699999999999</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="str">
+        <v>20.9861</v>
+      </c>
+      <c r="Q16" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S16" s="2" t="str">
+      <c r="R16" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T16" s="6" cm="1">
-        <f t="array" aca="1" ref="T16" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>36979890836</v>
+      <c r="S16" s="6" cm="1">
+        <f t="array" aca="1" ref="S16" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>36938319890</v>
       </c>
       <c r="U16" s="2"/>
     </row>
@@ -4572,7 +4541,7 @@
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>200.59</v>
+        <v>201.68</v>
       </c>
       <c r="N17" s="2" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4580,24 +4549,23 @@
       </c>
       <c r="O17" s="2" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">_FV(table1[[#This Row],[DataField]],"52 week high",TRUE)</f>
-        <v>201.2799</v>
+        <v>202.15</v>
       </c>
       <c r="P17" s="4" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>19.360800000000001</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="str">
+        <v>19.466100000000001</v>
+      </c>
+      <c r="Q17" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S17" s="2" t="str">
+      <c r="R17" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T17" s="6" cm="1">
-        <f t="array" aca="1" ref="T17" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>483280484050</v>
+      <c r="S17" s="6" cm="1">
+        <f t="array" aca="1" ref="S17" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>485906615600</v>
       </c>
       <c r="U17" s="2"/>
     </row>
@@ -4623,7 +4591,7 @@
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>470.28500000000003</v>
+        <v>470.87</v>
       </c>
       <c r="N18" s="2" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4635,20 +4603,19 @@
       </c>
       <c r="P18" s="4" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>26.197199999999999</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="str">
+        <v>26.229800000000001</v>
+      </c>
+      <c r="Q18" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S18" s="2" t="str">
+      <c r="R18" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T18" s="6" cm="1">
-        <f t="array" aca="1" ref="T18" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>108822914373</v>
+      <c r="S18" s="6" cm="1">
+        <f t="array" aca="1" ref="S18" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>108958282086</v>
       </c>
       <c r="U18" s="2"/>
     </row>
@@ -4674,7 +4641,7 @@
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>226.38499999999999</v>
+        <v>231.00970000000001</v>
       </c>
       <c r="N19" s="2" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4686,20 +4653,19 @@
       </c>
       <c r="P19" s="4" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>18.610299999999999</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="str">
+        <v>18.990500000000001</v>
+      </c>
+      <c r="Q19" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S19" s="2" t="str">
+      <c r="R19" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="T19" s="6" cm="1">
-        <f t="array" aca="1" ref="T19" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>126962344986</v>
+        <v>FALSE</v>
+      </c>
+      <c r="S19" s="6" cm="1">
+        <f t="array" aca="1" ref="S19" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>129555991901</v>
       </c>
       <c r="U19" s="2"/>
     </row>
@@ -4725,7 +4691,7 @@
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>42.924999999999997</v>
+        <v>42.859000000000002</v>
       </c>
       <c r="N20" s="2" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4739,17 +4705,16 @@
         <f t="array" aca="1" ref="P20" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="str">
+      <c r="Q20" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S20" s="2" t="str">
+      <c r="R20" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T20" s="6" cm="1">
-        <f t="array" aca="1" ref="T20" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S20" s="6" cm="1">
+        <f t="array" aca="1" ref="S20" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>14078720000</v>
       </c>
       <c r="U20" s="2"/>
@@ -4776,7 +4741,7 @@
       </c>
       <c r="M21" s="2" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>101.19</v>
+        <v>100.97</v>
       </c>
       <c r="N21" s="2" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4788,20 +4753,19 @@
       </c>
       <c r="P21" s="4" cm="1">
         <f t="array" aca="1" ref="P21" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>27.3597</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="str">
+        <v>27.3003</v>
+      </c>
+      <c r="Q21" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S21" s="2" t="str">
+      <c r="R21" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T21" s="6" cm="1">
-        <f t="array" aca="1" ref="T21" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>129787913040</v>
+      <c r="S21" s="6" cm="1">
+        <f t="array" aca="1" ref="S21" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>129505737520</v>
       </c>
       <c r="U21" s="2"/>
     </row>
@@ -4841,17 +4805,16 @@
         <f t="array" aca="1" ref="P22" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="str">
+      <c r="Q22" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S22" s="2" t="str">
+      <c r="R22" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T22" s="6" cm="1">
-        <f t="array" aca="1" ref="T22" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S22" s="6" cm="1">
+        <f t="array" aca="1" ref="S22" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>17460210000</v>
       </c>
       <c r="U22" s="2"/>
@@ -4878,7 +4841,7 @@
       </c>
       <c r="M23" s="2" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>492.91</v>
+        <v>492.64499999999998</v>
       </c>
       <c r="N23" s="2" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4890,20 +4853,19 @@
       </c>
       <c r="P23" s="4" cm="1">
         <f t="array" aca="1" ref="P23" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>35.069099999999999</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2" t="str">
+        <v>35.050199999999997</v>
+      </c>
+      <c r="Q23" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S23" s="2" t="str">
+      <c r="R23" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T23" s="6" cm="1">
-        <f t="array" aca="1" ref="T23" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>3663492947070</v>
+      <c r="S23" s="6" cm="1">
+        <f t="array" aca="1" ref="S23" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>3661523367165</v>
       </c>
       <c r="U23" s="2"/>
     </row>
@@ -4929,7 +4891,7 @@
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>62.53</v>
+        <v>62.965000000000003</v>
       </c>
       <c r="N24" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4941,20 +4903,19 @@
       </c>
       <c r="P24" s="4" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>32.046900000000001</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2" t="str">
+        <v>32.2699</v>
+      </c>
+      <c r="Q24" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S24" s="2" t="str">
+      <c r="R24" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T24" s="6" cm="1">
-        <f t="array" aca="1" ref="T24" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>92431908530</v>
+      <c r="S24" s="6" cm="1">
+        <f t="array" aca="1" ref="S24" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>93074925965</v>
       </c>
       <c r="U24" s="2"/>
     </row>
@@ -4980,7 +4941,7 @@
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>57.3</v>
+        <v>56.984999999999999</v>
       </c>
       <c r="N25" s="2" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -4992,20 +4953,19 @@
       </c>
       <c r="P25" s="4" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>53.526400000000002</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="str">
+        <v>53.232100000000003</v>
+      </c>
+      <c r="Q25" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S25" s="2" t="str">
+      <c r="R25" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T25" s="6" cm="1">
-        <f t="array" aca="1" ref="T25" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>52710602340</v>
+      <c r="S25" s="6" cm="1">
+        <f t="array" aca="1" ref="S25" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>52420832013</v>
       </c>
       <c r="U25" s="2"/>
     </row>
@@ -5031,7 +4991,7 @@
       </c>
       <c r="M26" s="2" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>148.11000000000001</v>
+        <v>148.35</v>
       </c>
       <c r="N26" s="2" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5043,20 +5003,19 @@
       </c>
       <c r="P26" s="4" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>28.1631</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="str">
+        <v>28.2088</v>
+      </c>
+      <c r="Q26" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S26" s="2" t="str">
+      <c r="R26" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T26" s="6" cm="1">
-        <f t="array" aca="1" ref="T26" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>202516727400</v>
+      <c r="S26" s="6" cm="1">
+        <f t="array" aca="1" ref="S26" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>202844889000</v>
       </c>
       <c r="U26" s="2"/>
     </row>
@@ -5082,7 +5041,7 @@
       </c>
       <c r="M27" s="2" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>104.67</v>
+        <v>105.22</v>
       </c>
       <c r="N27" s="2" cm="1">
         <f t="array" aca="1" ref="N27" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5096,17 +5055,16 @@
         <f t="array" aca="1" ref="P27" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="str">
+      <c r="Q27" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S27" s="2" t="str">
+      <c r="R27" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T27" s="6" cm="1">
-        <f t="array" aca="1" ref="T27" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S27" s="6" cm="1">
+        <f t="array" aca="1" ref="S27" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>11382240000</v>
       </c>
       <c r="U27" s="2"/>
@@ -5133,7 +5091,7 @@
       </c>
       <c r="M28" s="2" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>181.85</v>
+        <v>182.08</v>
       </c>
       <c r="N28" s="2" cm="1">
         <f t="array" aca="1" ref="N28" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5145,20 +5103,19 @@
       </c>
       <c r="P28" s="4" cm="1">
         <f t="array" aca="1" ref="P28" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>21.289200000000001</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="str">
+        <v>21.316099999999999</v>
+      </c>
+      <c r="Q28" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S28" s="2" t="str">
+      <c r="R28" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T28" s="6" cm="1">
-        <f t="array" aca="1" ref="T28" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>59368587685</v>
+      <c r="S28" s="6" cm="1">
+        <f t="array" aca="1" ref="S28" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>59443675808</v>
       </c>
       <c r="U28" s="2"/>
     </row>
@@ -5184,7 +5141,7 @@
       </c>
       <c r="M29" s="2" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>25.445</v>
+        <v>25.250800000000002</v>
       </c>
       <c r="N29" s="2" cm="1">
         <f t="array" aca="1" ref="N29" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5196,20 +5153,19 @@
       </c>
       <c r="P29" s="4" cm="1">
         <f t="array" aca="1" ref="P29" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>8.2562999999999995</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="str">
+        <v>8.1933000000000007</v>
+      </c>
+      <c r="Q29" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S29" s="2" t="str">
+      <c r="R29" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T29" s="6" cm="1">
-        <f t="array" aca="1" ref="T29" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>180391055250</v>
+      <c r="S29" s="6" cm="1">
+        <f t="array" aca="1" ref="S29" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>179014284060</v>
       </c>
       <c r="U29" s="2"/>
     </row>
@@ -5235,7 +5191,7 @@
       </c>
       <c r="M30" s="2" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>97.632999999999996</v>
+        <v>97.6</v>
       </c>
       <c r="N30" s="2" cm="1">
         <f t="array" aca="1" ref="N30" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5247,20 +5203,19 @@
       </c>
       <c r="P30" s="4" cm="1">
         <f t="array" aca="1" ref="P30" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>10.634399999999999</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="str">
+        <v>10.630800000000001</v>
+      </c>
+      <c r="Q30" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S30" s="2" t="str">
+      <c r="R30" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T30" s="6" cm="1">
-        <f t="array" aca="1" ref="T30" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>21307133021</v>
+      <c r="S30" s="6" cm="1">
+        <f t="array" aca="1" ref="S30" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>21299931200</v>
       </c>
       <c r="U30" s="2"/>
     </row>
@@ -5300,17 +5255,16 @@
         <f t="array" aca="1" ref="P31" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
         <v>39.991</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2" t="str">
+      <c r="Q31" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S31" s="2" t="str">
+      <c r="R31" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T31" s="6" cm="1">
-        <f t="array" aca="1" ref="T31" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+      <c r="S31" s="6" cm="1">
+        <f t="array" aca="1" ref="S31" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
         <v>18902516514</v>
       </c>
       <c r="U31" s="2"/>
@@ -5337,7 +5291,7 @@
       </c>
       <c r="M32" s="2" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>157.66999999999999</v>
+        <v>158.32</v>
       </c>
       <c r="N32" s="2" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5349,20 +5303,19 @@
       </c>
       <c r="P32" s="4" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>28.7714</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2" t="str">
+        <v>28.89</v>
+      </c>
+      <c r="Q32" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S32" s="2" t="str">
+      <c r="R32" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T32" s="6" cm="1">
-        <f t="array" aca="1" ref="T32" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>143262588410</v>
+      <c r="S32" s="6" cm="1">
+        <f t="array" aca="1" ref="S32" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>143853193360</v>
       </c>
       <c r="U32" s="2"/>
     </row>
@@ -5388,7 +5341,7 @@
       </c>
       <c r="M33" s="2" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>92.81</v>
+        <v>93.38</v>
       </c>
       <c r="N33" s="2" cm="1">
         <f t="array" aca="1" ref="N33" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5400,20 +5353,19 @@
       </c>
       <c r="P33" s="4" cm="1">
         <f t="array" aca="1" ref="P33" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>14.341799999999999</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2" t="str">
+        <v>14.4299</v>
+      </c>
+      <c r="Q33" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S33" s="2" t="str">
+      <c r="R33" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T33" s="6" cm="1">
-        <f t="array" aca="1" ref="T33" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>78738667536</v>
+      <c r="S33" s="6" cm="1">
+        <f t="array" aca="1" ref="S33" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>79222247328</v>
       </c>
       <c r="U33" s="2"/>
     </row>
@@ -5439,7 +5391,7 @@
       </c>
       <c r="M34" s="2" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>41.305</v>
+        <v>41.23</v>
       </c>
       <c r="N34" s="2" cm="1">
         <f t="array" aca="1" ref="N34" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5451,20 +5403,19 @@
       </c>
       <c r="P34" s="4" cm="1">
         <f t="array" aca="1" ref="P34" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>8.8056999999999999</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2" t="str">
+        <v>8.7896999999999998</v>
+      </c>
+      <c r="Q34" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S34" s="2" t="str">
+      <c r="R34" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T34" s="6" cm="1">
-        <f t="array" aca="1" ref="T34" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>174159434625</v>
+      <c r="S34" s="6" cm="1">
+        <f t="array" aca="1" ref="S34" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>173843202750</v>
       </c>
       <c r="U34" s="2"/>
     </row>
@@ -5490,7 +5441,7 @@
       </c>
       <c r="M35" s="2" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>149.30500000000001</v>
+        <v>149.72</v>
       </c>
       <c r="N35" s="2" cm="1">
         <f t="array" aca="1" ref="N35" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5502,20 +5453,19 @@
       </c>
       <c r="P35" s="4" cm="1">
         <f t="array" aca="1" ref="P35" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>32.8996</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2" t="str">
+        <v>32.991100000000003</v>
+      </c>
+      <c r="Q35" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="S35" s="2" t="str">
+      <c r="R35" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>FALSE</v>
       </c>
-      <c r="T35" s="6" cm="1">
-        <f t="array" aca="1" ref="T35" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>187531559150</v>
+      <c r="S35" s="6" cm="1">
+        <f t="array" aca="1" ref="S35" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>188052811600</v>
       </c>
       <c r="U35" s="2"/>
     </row>
@@ -5541,7 +5491,7 @@
       </c>
       <c r="M36" s="2" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>303.3</v>
+        <v>302.76</v>
       </c>
       <c r="N36" s="2" cm="1">
         <f t="array" aca="1" ref="N36" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5553,20 +5503,19 @@
       </c>
       <c r="P36" s="4" cm="1">
         <f t="array" aca="1" ref="P36" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>25.8689</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2" t="str">
+        <v>25.822800000000001</v>
+      </c>
+      <c r="Q36" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S36" s="2" t="str">
+      <c r="R36" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T36" s="6" cm="1">
-        <f t="array" aca="1" ref="T36" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>215996429520</v>
+      <c r="S36" s="6" cm="1">
+        <f t="array" aca="1" ref="S36" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>215611866144</v>
       </c>
       <c r="U36" s="2"/>
     </row>
@@ -5592,7 +5541,7 @@
       </c>
       <c r="M37" s="2" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">_FV(table1[[#This Row],[DataField]],"Price")</f>
-        <v>102.36</v>
+        <v>102.3425</v>
       </c>
       <c r="N37" s="2" cm="1">
         <f t="array" aca="1" ref="N37" ca="1">_FV(table1[[#This Row],[DataField]],"52 week low",TRUE)</f>
@@ -5604,32 +5553,26 @@
       </c>
       <c r="P37" s="4" cm="1">
         <f t="array" aca="1" ref="P37" ca="1">_FV(table1[[#This Row],[DataField]],"P/E",TRUE)</f>
-        <v>19.0611</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2" t="str">
+        <v>19.0578</v>
+      </c>
+      <c r="Q37" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.25) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="S37" s="2" t="str">
+      <c r="R37" s="2" t="str">
         <f ca="1">IF(table1[[#This Row],[Price]] &lt; (table1[[#This Row],[52Low]] * 0.1) + table1[[#This Row],[52Low]],  "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="T37" s="6" cm="1">
-        <f t="array" aca="1" ref="T37" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
-        <v>33969025824</v>
+      <c r="S37" s="6" cm="1">
+        <f t="array" aca="1" ref="S37" ca="1">_FV(table1[[#This Row],[DataField]],"Market cap",TRUE)</f>
+        <v>33963218302</v>
       </c>
       <c r="U37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"TRUE"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q1:R1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
